--- a/Datasets/poblacion.xlsx
+++ b/Datasets/poblacion.xlsx
@@ -15,13 +15,14 @@
     <sheet name="PBP_CO_1020" sheetId="1" r:id="rId1"/>
     <sheet name="Ficha Técnica" sheetId="2" r:id="rId2"/>
     <sheet name="DATOS" sheetId="3" r:id="rId3"/>
+    <sheet name="POBLACION_X_ANIO" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t>Comuna</t>
   </si>
@@ -895,7 +896,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="42" applyFill="1"/>
@@ -989,6 +990,7 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="20% - Énfasis1 2" xfId="1"/>
@@ -1360,7 +1362,7 @@
   <dimension ref="A1:Q75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4302,15 +4304,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>43</v>
       </c>
@@ -4327,7 +4329,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -4344,7 +4346,7 @@
         <v>128008</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>1</v>
       </c>
@@ -4360,8 +4362,9 @@
       <c r="E3" s="8">
         <v>128250</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>1</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>128458</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>1</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>128629</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31">
         <v>1</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>128754</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>1</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>128825</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31">
         <v>2</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>82978</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>2</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>82895</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31">
         <v>2</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>82824</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>2</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>82766</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31">
         <v>2</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>82723</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>2</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>82699</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31">
         <v>3</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>101959</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>3</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>101961</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31">
         <v>3</v>
       </c>
@@ -5867,4 +5870,867 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1">
+        <v>2010</v>
+      </c>
+      <c r="C1">
+        <v>2011</v>
+      </c>
+      <c r="D1">
+        <v>2012</v>
+      </c>
+      <c r="E1">
+        <v>2013</v>
+      </c>
+      <c r="F1">
+        <v>2014</v>
+      </c>
+      <c r="G1">
+        <v>2015</v>
+      </c>
+      <c r="H1">
+        <v>2016</v>
+      </c>
+      <c r="I1">
+        <v>2017</v>
+      </c>
+      <c r="J1">
+        <v>2018</v>
+      </c>
+      <c r="K1">
+        <v>2019</v>
+      </c>
+      <c r="L1">
+        <v>2020</v>
+      </c>
+      <c r="M1">
+        <v>2021</v>
+      </c>
+      <c r="N1">
+        <v>2022</v>
+      </c>
+      <c r="O1">
+        <v>2023</v>
+      </c>
+      <c r="P1">
+        <v>2024</v>
+      </c>
+      <c r="Q1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8">
+        <v>243946</v>
+      </c>
+      <c r="C2" s="8">
+        <v>245308</v>
+      </c>
+      <c r="D2" s="8">
+        <v>246689</v>
+      </c>
+      <c r="E2" s="8">
+        <v>248069</v>
+      </c>
+      <c r="F2" s="8">
+        <v>249433</v>
+      </c>
+      <c r="G2" s="8">
+        <v>250770</v>
+      </c>
+      <c r="H2" s="8">
+        <v>252053</v>
+      </c>
+      <c r="I2" s="8">
+        <v>253271</v>
+      </c>
+      <c r="J2" s="8">
+        <v>254408</v>
+      </c>
+      <c r="K2" s="8">
+        <v>255457</v>
+      </c>
+      <c r="L2" s="8">
+        <v>256405</v>
+      </c>
+      <c r="M2" s="8">
+        <v>257235</v>
+      </c>
+      <c r="N2" s="8">
+        <v>257934</v>
+      </c>
+      <c r="O2" s="8">
+        <v>258497</v>
+      </c>
+      <c r="P2" s="8">
+        <v>258922</v>
+      </c>
+      <c r="Q2" s="8">
+        <v>259205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8">
+        <v>150714</v>
+      </c>
+      <c r="C3" s="8">
+        <v>150573</v>
+      </c>
+      <c r="D3" s="8">
+        <v>150428</v>
+      </c>
+      <c r="E3" s="8">
+        <v>150278</v>
+      </c>
+      <c r="F3" s="8">
+        <v>150130</v>
+      </c>
+      <c r="G3" s="8">
+        <v>149985</v>
+      </c>
+      <c r="H3" s="8">
+        <v>149848</v>
+      </c>
+      <c r="I3" s="8">
+        <v>149720</v>
+      </c>
+      <c r="J3" s="8">
+        <v>149607</v>
+      </c>
+      <c r="K3" s="8">
+        <v>149510</v>
+      </c>
+      <c r="L3" s="8">
+        <v>149430</v>
+      </c>
+      <c r="M3" s="8">
+        <v>149371</v>
+      </c>
+      <c r="N3" s="8">
+        <v>149337</v>
+      </c>
+      <c r="O3" s="8">
+        <v>149328</v>
+      </c>
+      <c r="P3" s="8">
+        <v>149345</v>
+      </c>
+      <c r="Q3" s="8">
+        <v>149389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8">
+        <v>191323</v>
+      </c>
+      <c r="C4" s="8">
+        <v>191536</v>
+      </c>
+      <c r="D4" s="8">
+        <v>191750</v>
+      </c>
+      <c r="E4" s="8">
+        <v>191963</v>
+      </c>
+      <c r="F4" s="8">
+        <v>192171</v>
+      </c>
+      <c r="G4" s="8">
+        <v>192375</v>
+      </c>
+      <c r="H4" s="8">
+        <v>192573</v>
+      </c>
+      <c r="I4" s="8">
+        <v>192763</v>
+      </c>
+      <c r="J4" s="8">
+        <v>192945</v>
+      </c>
+      <c r="K4" s="8">
+        <v>193115</v>
+      </c>
+      <c r="L4" s="8">
+        <v>193276</v>
+      </c>
+      <c r="M4" s="8">
+        <v>193425</v>
+      </c>
+      <c r="N4" s="8">
+        <v>193560</v>
+      </c>
+      <c r="O4" s="8">
+        <v>193682</v>
+      </c>
+      <c r="P4" s="8">
+        <v>193790</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>193884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>234933</v>
+      </c>
+      <c r="C5" s="8">
+        <v>235497</v>
+      </c>
+      <c r="D5" s="8">
+        <v>236071</v>
+      </c>
+      <c r="E5" s="8">
+        <v>236646</v>
+      </c>
+      <c r="F5" s="8">
+        <v>237214</v>
+      </c>
+      <c r="G5" s="8">
+        <v>237769</v>
+      </c>
+      <c r="H5" s="8">
+        <v>238303</v>
+      </c>
+      <c r="I5" s="8">
+        <v>238809</v>
+      </c>
+      <c r="J5" s="8">
+        <v>239279</v>
+      </c>
+      <c r="K5" s="8">
+        <v>239712</v>
+      </c>
+      <c r="L5" s="8">
+        <v>240100</v>
+      </c>
+      <c r="M5" s="8">
+        <v>240437</v>
+      </c>
+      <c r="N5" s="8">
+        <v>240716</v>
+      </c>
+      <c r="O5" s="8">
+        <v>240937</v>
+      </c>
+      <c r="P5" s="8">
+        <v>241096</v>
+      </c>
+      <c r="Q5" s="8">
+        <v>241193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>185301</v>
+      </c>
+      <c r="C6" s="8">
+        <v>185544</v>
+      </c>
+      <c r="D6" s="8">
+        <v>185789</v>
+      </c>
+      <c r="E6" s="8">
+        <v>186034</v>
+      </c>
+      <c r="F6" s="8">
+        <v>186276</v>
+      </c>
+      <c r="G6" s="8">
+        <v>186512</v>
+      </c>
+      <c r="H6" s="8">
+        <v>186740</v>
+      </c>
+      <c r="I6" s="8">
+        <v>186956</v>
+      </c>
+      <c r="J6" s="8">
+        <v>187159</v>
+      </c>
+      <c r="K6" s="8">
+        <v>187348</v>
+      </c>
+      <c r="L6" s="8">
+        <v>187518</v>
+      </c>
+      <c r="M6" s="8">
+        <v>187670</v>
+      </c>
+      <c r="N6" s="8">
+        <v>187800</v>
+      </c>
+      <c r="O6" s="8">
+        <v>187907</v>
+      </c>
+      <c r="P6" s="8">
+        <v>187991</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>188053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>183046</v>
+      </c>
+      <c r="C7" s="8">
+        <v>183309</v>
+      </c>
+      <c r="D7" s="8">
+        <v>183576</v>
+      </c>
+      <c r="E7" s="8">
+        <v>183843</v>
+      </c>
+      <c r="F7" s="8">
+        <v>184105</v>
+      </c>
+      <c r="G7" s="8">
+        <v>184363</v>
+      </c>
+      <c r="H7" s="8">
+        <v>184611</v>
+      </c>
+      <c r="I7" s="8">
+        <v>184846</v>
+      </c>
+      <c r="J7" s="8">
+        <v>185067</v>
+      </c>
+      <c r="K7" s="8">
+        <v>185271</v>
+      </c>
+      <c r="L7" s="8">
+        <v>185456</v>
+      </c>
+      <c r="M7" s="8">
+        <v>185620</v>
+      </c>
+      <c r="N7" s="8">
+        <v>185760</v>
+      </c>
+      <c r="O7" s="8">
+        <v>185875</v>
+      </c>
+      <c r="P7" s="8">
+        <v>185964</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>186028</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>236838</v>
+      </c>
+      <c r="C8" s="8">
+        <v>237389</v>
+      </c>
+      <c r="D8" s="8">
+        <v>237946</v>
+      </c>
+      <c r="E8" s="8">
+        <v>238505</v>
+      </c>
+      <c r="F8" s="8">
+        <v>239057</v>
+      </c>
+      <c r="G8" s="8">
+        <v>239597</v>
+      </c>
+      <c r="H8" s="8">
+        <v>240116</v>
+      </c>
+      <c r="I8" s="8">
+        <v>240607</v>
+      </c>
+      <c r="J8" s="8">
+        <v>241065</v>
+      </c>
+      <c r="K8" s="8">
+        <v>241484</v>
+      </c>
+      <c r="L8" s="8">
+        <v>241861</v>
+      </c>
+      <c r="M8" s="8">
+        <v>242188</v>
+      </c>
+      <c r="N8" s="8">
+        <v>242460</v>
+      </c>
+      <c r="O8" s="8">
+        <v>242674</v>
+      </c>
+      <c r="P8" s="8">
+        <v>242828</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>242921</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="8">
+        <v>219638</v>
+      </c>
+      <c r="C9" s="8">
+        <v>220655</v>
+      </c>
+      <c r="D9" s="8">
+        <v>221693</v>
+      </c>
+      <c r="E9" s="8">
+        <v>222733</v>
+      </c>
+      <c r="F9" s="8">
+        <v>223764</v>
+      </c>
+      <c r="G9" s="8">
+        <v>224770</v>
+      </c>
+      <c r="H9" s="8">
+        <v>225737</v>
+      </c>
+      <c r="I9" s="8">
+        <v>226649</v>
+      </c>
+      <c r="J9" s="8">
+        <v>227495</v>
+      </c>
+      <c r="K9" s="8">
+        <v>228266</v>
+      </c>
+      <c r="L9" s="8">
+        <v>228953</v>
+      </c>
+      <c r="M9" s="8">
+        <v>229541</v>
+      </c>
+      <c r="N9" s="8">
+        <v>230018</v>
+      </c>
+      <c r="O9" s="8">
+        <v>230380</v>
+      </c>
+      <c r="P9" s="8">
+        <v>230623</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>230745</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="8">
+        <v>168681</v>
+      </c>
+      <c r="C10" s="8">
+        <v>168964</v>
+      </c>
+      <c r="D10" s="8">
+        <v>169248</v>
+      </c>
+      <c r="E10" s="8">
+        <v>169533</v>
+      </c>
+      <c r="F10" s="8">
+        <v>169814</v>
+      </c>
+      <c r="G10" s="8">
+        <v>170087</v>
+      </c>
+      <c r="H10" s="8">
+        <v>170353</v>
+      </c>
+      <c r="I10" s="8">
+        <v>170605</v>
+      </c>
+      <c r="J10" s="8">
+        <v>170842</v>
+      </c>
+      <c r="K10" s="8">
+        <v>171062</v>
+      </c>
+      <c r="L10" s="8">
+        <v>171264</v>
+      </c>
+      <c r="M10" s="8">
+        <v>171444</v>
+      </c>
+      <c r="N10" s="8">
+        <v>171600</v>
+      </c>
+      <c r="O10" s="8">
+        <v>171733</v>
+      </c>
+      <c r="P10" s="8">
+        <v>171839</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>171921</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="8">
+        <v>169372</v>
+      </c>
+      <c r="C11" s="8">
+        <v>169506</v>
+      </c>
+      <c r="D11" s="8">
+        <v>169640</v>
+      </c>
+      <c r="E11" s="8">
+        <v>169775</v>
+      </c>
+      <c r="F11" s="8">
+        <v>169908</v>
+      </c>
+      <c r="G11" s="8">
+        <v>170037</v>
+      </c>
+      <c r="H11" s="8">
+        <v>170163</v>
+      </c>
+      <c r="I11" s="8">
+        <v>170282</v>
+      </c>
+      <c r="J11" s="8">
+        <v>170394</v>
+      </c>
+      <c r="K11" s="8">
+        <v>170497</v>
+      </c>
+      <c r="L11" s="8">
+        <v>170592</v>
+      </c>
+      <c r="M11" s="8">
+        <v>170677</v>
+      </c>
+      <c r="N11" s="8">
+        <v>170750</v>
+      </c>
+      <c r="O11" s="8">
+        <v>170811</v>
+      </c>
+      <c r="P11" s="8">
+        <v>170859</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>170896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>11</v>
+      </c>
+      <c r="B12" s="8">
+        <v>189760</v>
+      </c>
+      <c r="C12" s="8">
+        <v>189795</v>
+      </c>
+      <c r="D12" s="8">
+        <v>189829</v>
+      </c>
+      <c r="E12" s="8">
+        <v>189861</v>
+      </c>
+      <c r="F12" s="8">
+        <v>189893</v>
+      </c>
+      <c r="G12" s="8">
+        <v>189925</v>
+      </c>
+      <c r="H12" s="8">
+        <v>189956</v>
+      </c>
+      <c r="I12" s="8">
+        <v>189986</v>
+      </c>
+      <c r="J12" s="8">
+        <v>190016</v>
+      </c>
+      <c r="K12" s="8">
+        <v>190046</v>
+      </c>
+      <c r="L12" s="8">
+        <v>190076</v>
+      </c>
+      <c r="M12" s="8">
+        <v>190105</v>
+      </c>
+      <c r="N12" s="8">
+        <v>190135</v>
+      </c>
+      <c r="O12" s="8">
+        <v>190165</v>
+      </c>
+      <c r="P12" s="8">
+        <v>190195</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>190225</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8">
+        <v>211320</v>
+      </c>
+      <c r="C13" s="8">
+        <v>211699</v>
+      </c>
+      <c r="D13" s="8">
+        <v>212082</v>
+      </c>
+      <c r="E13" s="8">
+        <v>212467</v>
+      </c>
+      <c r="F13" s="8">
+        <v>212846</v>
+      </c>
+      <c r="G13" s="8">
+        <v>213218</v>
+      </c>
+      <c r="H13" s="8">
+        <v>213576</v>
+      </c>
+      <c r="I13" s="8">
+        <v>213914</v>
+      </c>
+      <c r="J13" s="8">
+        <v>214229</v>
+      </c>
+      <c r="K13" s="8">
+        <v>214518</v>
+      </c>
+      <c r="L13" s="8">
+        <v>214777</v>
+      </c>
+      <c r="M13" s="8">
+        <v>215002</v>
+      </c>
+      <c r="N13" s="8">
+        <v>215189</v>
+      </c>
+      <c r="O13" s="8">
+        <v>215335</v>
+      </c>
+      <c r="P13" s="8">
+        <v>215442</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>215505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>13</v>
+      </c>
+      <c r="B14" s="8">
+        <v>234846</v>
+      </c>
+      <c r="C14" s="8">
+        <v>235011</v>
+      </c>
+      <c r="D14" s="8">
+        <v>235178</v>
+      </c>
+      <c r="E14" s="8">
+        <v>235342</v>
+      </c>
+      <c r="F14" s="8">
+        <v>235506</v>
+      </c>
+      <c r="G14" s="8">
+        <v>235666</v>
+      </c>
+      <c r="H14" s="8">
+        <v>235819</v>
+      </c>
+      <c r="I14" s="8">
+        <v>235967</v>
+      </c>
+      <c r="J14" s="8">
+        <v>236107</v>
+      </c>
+      <c r="K14" s="8">
+        <v>236238</v>
+      </c>
+      <c r="L14" s="8">
+        <v>236358</v>
+      </c>
+      <c r="M14" s="8">
+        <v>236468</v>
+      </c>
+      <c r="N14" s="8">
+        <v>236566</v>
+      </c>
+      <c r="O14" s="8">
+        <v>236650</v>
+      </c>
+      <c r="P14" s="8">
+        <v>236723</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>236781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>14</v>
+      </c>
+      <c r="B15" s="8">
+        <v>226489</v>
+      </c>
+      <c r="C15" s="8">
+        <v>226558</v>
+      </c>
+      <c r="D15" s="8">
+        <v>226626</v>
+      </c>
+      <c r="E15" s="8">
+        <v>226692</v>
+      </c>
+      <c r="F15" s="8">
+        <v>226758</v>
+      </c>
+      <c r="G15" s="8">
+        <v>226821</v>
+      </c>
+      <c r="H15" s="8">
+        <v>226884</v>
+      </c>
+      <c r="I15" s="8">
+        <v>226944</v>
+      </c>
+      <c r="J15" s="8">
+        <v>227003</v>
+      </c>
+      <c r="K15" s="8">
+        <v>227060</v>
+      </c>
+      <c r="L15" s="8">
+        <v>227115</v>
+      </c>
+      <c r="M15" s="8">
+        <v>227168</v>
+      </c>
+      <c r="N15" s="8">
+        <v>227219</v>
+      </c>
+      <c r="O15" s="8">
+        <v>227268</v>
+      </c>
+      <c r="P15" s="8">
+        <v>227315</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>227360</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="8">
+        <v>182274</v>
+      </c>
+      <c r="C16" s="8">
+        <v>182295</v>
+      </c>
+      <c r="D16" s="8">
+        <v>182315</v>
+      </c>
+      <c r="E16" s="8">
+        <v>182335</v>
+      </c>
+      <c r="F16" s="8">
+        <v>182354</v>
+      </c>
+      <c r="G16" s="8">
+        <v>182372</v>
+      </c>
+      <c r="H16" s="8">
+        <v>182390</v>
+      </c>
+      <c r="I16" s="8">
+        <v>182409</v>
+      </c>
+      <c r="J16" s="8">
+        <v>182427</v>
+      </c>
+      <c r="K16" s="8">
+        <v>182445</v>
+      </c>
+      <c r="L16" s="8">
+        <v>182465</v>
+      </c>
+      <c r="M16" s="8">
+        <v>182485</v>
+      </c>
+      <c r="N16" s="8">
+        <v>182506</v>
+      </c>
+      <c r="O16" s="8">
+        <v>182528</v>
+      </c>
+      <c r="P16" s="8">
+        <v>182551</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>182574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>